--- a/medicine/Mort/Liste_de_parlementaires_français_morts_à_la_Seconde_Guerre_mondiale/Liste_de_parlementaires_français_morts_à_la_Seconde_Guerre_mondiale.xlsx
+++ b/medicine/Mort/Liste_de_parlementaires_français_morts_à_la_Seconde_Guerre_mondiale/Liste_de_parlementaires_français_morts_à_la_Seconde_Guerre_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_fran%C3%A7ais_morts_%C3%A0_la_Seconde_Guerre_mondiale</t>
+          <t>Liste_de_parlementaires_français_morts_à_la_Seconde_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La République française déclare la guerre au Troisième Reich le 3 septembre 1939, quelques heures après le Royaume-Uni, à la suite de l'invasion allemande de la Pologne. Dans les premières phases de la guerre, la France est ainsi l'une des deux grandes puissances parmi les Alliés. La bataille de France se déroule du 10 mai au 22 juin 1940, aboutissant à l'armistice avec l'Allemagne et à l'occupation allemande du nord de la France. Dans le même temps, la France libre menée par le général Charles de Gaulle se constitue et poursuit sa participation à la guerre.
 À l'entame du conflit, le régime politique en France est celui de la Troisième République. Albert Lebrun est le président de la République et Édouard Daladier est à la fois président du Conseil et ministre de la Défense nationale. En mars 1940, le libéral-conservateur Paul Reynaud remplace le centriste radical Daladier à la tête du gouvernement. Le 16 juin, il est remplacé à son tour par le maréchal Philippe Pétain. Le 10 juillet, l'Assemblée nationale, rassemblant députés et sénateurs, vote les pleins pouvoirs à Pétain. L'Assemblée ne siégera dès lors plus. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_fran%C3%A7ais_morts_%C3%A0_la_Seconde_Guerre_mondiale</t>
+          <t>Liste_de_parlementaires_français_morts_à_la_Seconde_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,12 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ces parlementaires français morts à la Seconde Guerre mondiale sont[1],[2],[3] :
-Morts au combat
-Morts déportés
-Morts exécutés ou assassinés
-Autres</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces parlementaires français morts à la Seconde Guerre mondiale sont :
+</t>
         </is>
       </c>
     </row>
